--- a/Stat/Paper_Table/accp.xlsx
+++ b/Stat/Paper_Table/accp.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -561,137 +561,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLIP2</t>
+          <t>InternLM-XComposer-v2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>55.39</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>50.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>51.33</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>47.57</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>66.50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>41.17</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>43.62</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>52.33</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>52.50</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>64.35</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>47.26</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>69.19</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>55.60</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>59.20</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48.88</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>62.60</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>42.88</t>
         </is>
       </c>
     </row>
